--- a/src/attributions/attributions_ig_traj_282.xlsx
+++ b/src/attributions/attributions_ig_traj_282.xlsx
@@ -1004,46 +1004,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1417769722443682</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.007674224461427462</v>
+        <v>-0.0736143064681548</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2023283625086515</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02789820069190366</v>
+        <v>0.005361901149070607</v>
       </c>
       <c r="F2" t="n">
         <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.149201255826591</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00143374499483343</v>
+        <v>0.005910374655943606</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.2017405004068997</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007285912200402838</v>
+        <v>-0.003175673222564392</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
@@ -1055,106 +1055,106 @@
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04831607806695155</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.006000103425580682</v>
+        <v>-0.0836551046379089</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0</v>
+        <v>0.01416007321150566</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.03190600886396584</v>
+        <v>-0.03298341659304817</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03271369365269985</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.03627924205296781</v>
+        <v>-0.05416417955287071</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>-0.01788162495550331</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02372743439398732</v>
+        <v>0.0002069792777307436</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.03225174783902805</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.0267033968298425</v>
+        <v>-0.03184932082569965</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.02827770634814052</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.03568400642243264</v>
+        <v>0.06944358562979185</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
         <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.05037985035558925</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.01403716805736536</v>
+        <v>-0.1497027310705481</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.07080831603100772</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.07613790051210383</v>
+        <v>-0.001817919973327277</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1166,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.07038878152444855</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.007500721614367749</v>
+        <v>-0.01418805710578807</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.08649163433815991</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.02572351845172211</v>
+        <v>0.03283123518905573</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1187,25 +1187,25 @@
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.03100488327202843</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.006515781023121575</v>
+        <v>0.03190481457958391</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.04257541708426302</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.03093234462409079</v>
+        <v>-0.08905310676590357</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
@@ -1220,52 +1220,52 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.04224962305229465</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.02059957272566608</v>
+        <v>-0.04640710802875297</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.01094127294829059</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.02483051112930732</v>
+        <v>-0.02004983166574863</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01605766005930552</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.001284822069780445</v>
+        <v>0.03274941356648393</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.03099117283538349</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.02298807208998688</v>
+        <v>0.01593166186343111</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.002178206139259413</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.01510492283718305</v>
+        <v>-0.01061381960660221</v>
       </c>
       <c r="CO2" t="n">
         <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>0.02133540246658532</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.01445792384173478</v>
+        <v>0.03716094318380431</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.01324367677238848</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.007017220489149821</v>
+        <v>0.04597314766486385</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.03342648399499332</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02405887545235949</v>
+        <v>0.01017704690408558</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1325,52 +1325,52 @@
         <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.02733045423033032</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.03844846129287026</v>
+        <v>0.02874569132567836</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.02900526664094873</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01653682214093652</v>
+        <v>0.03380050877759293</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01672197699591536</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.02470963946851467</v>
+        <v>-0.01950247745448723</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.03637034262361485</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.02433209944324961</v>
+        <v>-0.01945341551444906</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.004097433027418564</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.001723018070027589</v>
+        <v>-0.05668836815106189</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.008248668484950638</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.001097204401223307</v>
+        <v>-0.02434073422596091</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
@@ -1409,19 +1409,19 @@
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.05483614548614243</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.003716884598703189</v>
+        <v>0.04085971144248264</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>0.06686095049629477</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0049118640789951</v>
+        <v>-0.02407360759003618</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
@@ -1436,52 +1436,52 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.005489707347104152</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.04793007456928008</v>
+        <v>0.04575396385905522</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.0349068518066118</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.001039752198540128</v>
+        <v>0.03654119765287879</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.02119936252079878</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.004524220643058569</v>
+        <v>0.04340351386436194</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.02669773779825179</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02737428547725729</v>
+        <v>0.01710822948871973</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
@@ -1490,79 +1490,79 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.01561520274388345</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.01836204246592612</v>
+        <v>0.001691558334483329</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0.006288705109680439</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.01495977923577867</v>
+        <v>-0.008476023910300627</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.05117294224088514</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.004404974425738182</v>
+        <v>-0.01406165917757605</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0.0184191401413391</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.001507606815371113</v>
+        <v>0.005010644615690384</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
         <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.07038689935737097</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02865160294531813</v>
+        <v>-0.03040407898268115</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.03399166782388464</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
